--- a/data/trans_orig/P14C01-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C01-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04B6FA6F-679C-40C4-AB32-E59591366B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C5B80FF-F8EB-4338-A8BE-412C9EEB9324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9B5A6CE5-9E81-4315-973F-2484CC6F5E19}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E9466021-08E5-4DC2-9779-103BB5B27CE1}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="149">
   <si>
     <t>Población según el tiempo de diagnóstico del cáncer en 2015 (Tasa respuesta: 1,43%)</t>
   </si>
@@ -119,25 +119,25 @@
     <t>82,76%</t>
   </si>
   <si>
-    <t>33,39%</t>
+    <t>22,97%</t>
   </si>
   <si>
     <t>59,44%</t>
   </si>
   <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
   </si>
   <si>
     <t>65,6%</t>
   </si>
   <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -146,61 +146,61 @@
     <t>40,56%</t>
   </si>
   <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
   </si>
   <si>
     <t>29,83%</t>
   </si>
   <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
     <t>12,48%</t>
   </si>
   <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
+    <t>60,87%</t>
   </si>
   <si>
     <t>30,03%</t>
   </si>
   <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -209,40 +209,43 @@
     <t>33,8%</t>
   </si>
   <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
   </si>
   <si>
     <t>22,62%</t>
   </si>
   <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
   </si>
   <si>
     <t>75,96%</t>
   </si>
   <si>
-    <t>27,16%</t>
+    <t>37,24%</t>
   </si>
   <si>
     <t>33,2%</t>
   </si>
   <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
   </si>
   <si>
     <t>47,35%</t>
   </si>
   <si>
-    <t>68,14%</t>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -323,64 +326,64 @@
     <t>24,93%</t>
   </si>
   <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
   </si>
   <si>
     <t>57,57%</t>
   </si>
   <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
   </si>
   <si>
     <t>48,44%</t>
   </si>
   <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
   </si>
   <si>
     <t>52,25%</t>
   </si>
   <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
   </si>
   <si>
     <t>31,01%</t>
   </si>
   <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
   </si>
   <si>
     <t>36,95%</t>
   </si>
   <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
   </si>
   <si>
     <t>22,82%</t>
   </si>
   <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
   </si>
   <si>
     <t>11,42%</t>
@@ -389,91 +392,94 @@
     <t>3,49%</t>
   </si>
   <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
   </si>
   <si>
     <t>39,33%</t>
   </si>
   <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
   </si>
   <si>
     <t>48,64%</t>
   </si>
   <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
   </si>
   <si>
     <t>45,9%</t>
   </si>
   <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
   </si>
   <si>
     <t>26,35%</t>
   </si>
   <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
   </si>
   <si>
     <t>35,81%</t>
   </si>
   <si>
-    <t>48,34%</t>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
   </si>
   <si>
     <t>33,02%</t>
   </si>
   <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
   </si>
   <si>
     <t>34,32%</t>
   </si>
   <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
   </si>
   <si>
     <t>15,54%</t>
   </si>
   <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
   </si>
   <si>
     <t>21,08%</t>
   </si>
   <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -888,7 +894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE79E43-0ABD-473C-B9C0-0EE8D2B653B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33FB1FE-F96C-476E-A530-C942B8CFA3D2}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1559,10 +1565,10 @@
         <v>67</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1618,7 +1624,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1630,13 +1636,13 @@
         <v>1885</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -1645,13 +1651,13 @@
         <v>3196</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -1660,13 +1666,13 @@
         <v>5082</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1681,13 +1687,13 @@
         <v>1975</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -1696,13 +1702,13 @@
         <v>4422</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -1711,13 +1717,13 @@
         <v>6398</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1732,13 +1738,13 @@
         <v>792</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -1747,13 +1753,13 @@
         <v>2484</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M18" s="7">
         <v>3</v>
@@ -1762,13 +1768,13 @@
         <v>3277</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1824,7 +1830,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1836,13 +1842,13 @@
         <v>2795</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H20" s="7">
         <v>14</v>
@@ -1851,13 +1857,13 @@
         <v>16630</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M20" s="7">
         <v>17</v>
@@ -1866,13 +1872,13 @@
         <v>19425</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1887,13 +1893,13 @@
         <v>5859</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -1902,13 +1908,13 @@
         <v>8958</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M21" s="7">
         <v>14</v>
@@ -1917,13 +1923,13 @@
         <v>14816</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1938,13 +1944,13 @@
         <v>2558</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -1953,13 +1959,13 @@
         <v>3299</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -1968,13 +1974,13 @@
         <v>5857</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2042,13 +2048,13 @@
         <v>11695</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H24" s="7">
         <v>30</v>
@@ -2057,13 +2063,13 @@
         <v>34610</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M24" s="7">
         <v>42</v>
@@ -2072,13 +2078,13 @@
         <v>46305</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2093,13 +2099,13 @@
         <v>7834</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H25" s="7">
         <v>24</v>
@@ -2108,13 +2114,13 @@
         <v>25482</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M25" s="7">
         <v>32</v>
@@ -2123,13 +2129,13 @@
         <v>33315</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2144,13 +2150,13 @@
         <v>10206</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H26" s="7">
         <v>9</v>
@@ -2159,13 +2165,13 @@
         <v>11058</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M26" s="7">
         <v>20</v>
@@ -2174,13 +2180,13 @@
         <v>21264</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2236,7 +2242,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C01-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C01-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C5B80FF-F8EB-4338-A8BE-412C9EEB9324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFF91E56-293A-40A3-A41D-17CE186DFE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E9466021-08E5-4DC2-9779-103BB5B27CE1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9130CAF2-9382-4534-84B3-D58DF97EBF0A}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="149">
   <si>
-    <t>Población según el tiempo de diagnóstico del cáncer en 2015 (Tasa respuesta: 1,43%)</t>
+    <t>Población según el tiempo de diagnóstico del cáncer en 2016 (Tasa respuesta: 1,43%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Mas de 4 años</t>
@@ -113,31 +113,31 @@
     <t>44,41%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>82,76%</t>
   </si>
   <si>
-    <t>22,97%</t>
+    <t>22,83%</t>
   </si>
   <si>
     <t>59,44%</t>
   </si>
   <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
   </si>
   <si>
     <t>65,6%</t>
   </si>
   <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -146,25 +146,25 @@
     <t>40,56%</t>
   </si>
   <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
   </si>
   <si>
     <t>29,83%</t>
   </si>
   <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
   </si>
   <si>
     <t>17,24%</t>
   </si>
   <si>
-    <t>77,03%</t>
+    <t>77,17%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -173,34 +173,34 @@
     <t>4,56%</t>
   </si>
   <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>24,04%</t>
   </si>
   <si>
-    <t>62,76%</t>
+    <t>62,39%</t>
   </si>
   <si>
     <t>32,99%</t>
   </si>
   <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
   </si>
   <si>
     <t>30,03%</t>
   </si>
   <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -209,277 +209,277 @@
     <t>33,8%</t>
   </si>
   <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
   </si>
   <si>
     <t>22,62%</t>
   </si>
   <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
   </si>
   <si>
     <t>75,96%</t>
   </si>
   <si>
-    <t>37,24%</t>
+    <t>37,61%</t>
   </si>
   <si>
     <t>33,2%</t>
   </si>
   <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
   </si>
   <si>
     <t>47,35%</t>
   </si>
   <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>40,52%</t>
   </si>
   <si>
-    <t>83,6%</t>
+    <t>83,18%</t>
   </si>
   <si>
     <t>31,64%</t>
   </si>
   <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
+    <t>66,37%</t>
   </si>
   <si>
     <t>34,44%</t>
   </si>
   <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
   </si>
   <si>
     <t>42,45%</t>
   </si>
   <si>
-    <t>83,74%</t>
+    <t>83,52%</t>
   </si>
   <si>
     <t>43,77%</t>
   </si>
   <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
   </si>
   <si>
     <t>43,36%</t>
   </si>
   <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
     <t>14,61%</t>
   </si>
   <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
   </si>
   <si>
     <t>31,02%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -894,7 +894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33FB1FE-F96C-476E-A530-C942B8CFA3D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F6F38E-54AE-41D4-891C-1CCD8CEC9B28}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1654,10 +1654,10 @@
         <v>73</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -1666,13 +1666,13 @@
         <v>5082</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1687,13 +1687,13 @@
         <v>1975</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -1702,13 +1702,13 @@
         <v>4422</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -1717,13 +1717,13 @@
         <v>6398</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1738,13 +1738,13 @@
         <v>792</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -1753,13 +1753,13 @@
         <v>2484</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M18" s="7">
         <v>3</v>
@@ -1768,13 +1768,13 @@
         <v>3277</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1830,7 +1830,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1842,13 +1842,13 @@
         <v>2795</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H20" s="7">
         <v>14</v>
@@ -1857,13 +1857,13 @@
         <v>16630</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M20" s="7">
         <v>17</v>
@@ -1872,13 +1872,13 @@
         <v>19425</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1893,13 +1893,13 @@
         <v>5859</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -1908,13 +1908,13 @@
         <v>8958</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M21" s="7">
         <v>14</v>
@@ -1923,13 +1923,13 @@
         <v>14816</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1944,13 +1944,13 @@
         <v>2558</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -1959,13 +1959,13 @@
         <v>3299</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -1974,7 +1974,7 @@
         <v>5857</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>119</v>
@@ -2228,7 +2228,7 @@
         <v>94</v>
       </c>
       <c r="N27" s="7">
-        <v>100884</v>
+        <v>100885</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>13</v>
